--- a/category.xlsx
+++ b/category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\automotive_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741E28C-62CA-4894-8DE1-D4C99F17DE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4F102-2937-472E-A701-C1C537D012B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="2273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="2274">
   <si>
     <t>image_name</t>
   </si>
@@ -6839,6 +6839,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>2269.png</t>
   </si>
 </sst>
 </file>
@@ -7201,9 +7204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2269"/>
+  <dimension ref="A1:B2270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2249" workbookViewId="0">
+      <selection activeCell="B2271" sqref="B2271"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -25359,6 +25364,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2270" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2270" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
